--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,258 +434,184 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LP-042351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LP42351</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LP0044650</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LP4465</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>LP-044651</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>LP-045677</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LP-046155</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LP46155</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>LP-046296</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LP-047097</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LP-047098</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LP-047098</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LP47206</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LP-047206</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LP-047237</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LP-047237</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LP-047238</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LP-047238</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LP-047239</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LP-047239</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LP-047240</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LP-047240</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LP-047241</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LP-047241</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LP-047475</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LP-047475</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LP-047477</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LP-047477</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LP-047782</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LP-047782</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LP-047879</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LP-047879</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LP4788</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LP-047880</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LP-047881</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LP-047881</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LP48263</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LP-048263</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>LP-048265</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -1,37 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6A574-A8ED-4A78-8C29-43F99C3E612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>LP-037308</t>
+  </si>
+  <si>
+    <t>LP-045082</t>
+  </si>
+  <si>
+    <t>LP-045130</t>
+  </si>
+  <si>
+    <t>LP-045327</t>
+  </si>
+  <si>
+    <t>LP-045819</t>
+  </si>
+  <si>
+    <t>LP-045827</t>
+  </si>
+  <si>
+    <t>LP-045828</t>
+  </si>
+  <si>
+    <t>LP-046341</t>
+  </si>
+  <si>
+    <t>LP-047096</t>
+  </si>
+  <si>
+    <t>LP-047102</t>
+  </si>
+  <si>
+    <t>LP-047106</t>
+  </si>
+  <si>
+    <t>LP-047176</t>
+  </si>
+  <si>
+    <t>LP-047331</t>
+  </si>
+  <si>
+    <t>LP-047338</t>
+  </si>
+  <si>
+    <t>LP-047451</t>
+  </si>
+  <si>
+    <t>LP-047457</t>
+  </si>
+  <si>
+    <t>LP-047488</t>
+  </si>
+  <si>
+    <t>LP-047492</t>
+  </si>
+  <si>
+    <t>LP-047501</t>
+  </si>
+  <si>
+    <t>LP-047504</t>
+  </si>
+  <si>
+    <t>LP-047520</t>
+  </si>
+  <si>
+    <t>LP-047787</t>
+  </si>
+  <si>
+    <t>LP-047865</t>
+  </si>
+  <si>
+    <t>LP-047871</t>
+  </si>
+  <si>
+    <t>LP-047886</t>
+  </si>
+  <si>
+    <t>LP-047890</t>
+  </si>
+  <si>
+    <t>LP-048703</t>
+  </si>
+  <si>
+    <t>LP-048838</t>
+  </si>
+  <si>
+    <t>LP-046173</t>
+  </si>
+  <si>
+    <t>LP-047826</t>
+  </si>
+  <si>
+    <t>LP-043868</t>
+  </si>
+  <si>
+    <t>LP-046067</t>
+  </si>
+  <si>
+    <t>LP-046169</t>
+  </si>
+  <si>
+    <t>LP-046176</t>
+  </si>
+  <si>
+    <t>LP-046184</t>
+  </si>
+  <si>
+    <t>LP-046662</t>
+  </si>
+  <si>
+    <t>LP-047171</t>
+  </si>
+  <si>
+    <t>LP-047490</t>
+  </si>
+  <si>
+    <t>LP-047507</t>
+  </si>
+  <si>
+    <t>LP-047528</t>
+  </si>
+  <si>
+    <t>LP-045883</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +186,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,198 +510,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>LP</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LP42351</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LP4465</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LP-044651</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LP-045677</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LP46155</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LP-046296</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LP-047098</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LP47206</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LP-047237</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>LP-047238</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>LP-047239</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LP-047240</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LP-047241</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LP-047475</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LP-047477</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LP-047782</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LP-047879</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LP4788</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LP-047881</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LP48263</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LP-048265</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6A574-A8ED-4A78-8C29-43F99C3E612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66533772-FFAE-4CDB-ABD8-41AD6EE3B26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>LP</t>
   </si>
@@ -28,127 +28,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-037308</t>
-  </si>
-  <si>
-    <t>LP-045082</t>
-  </si>
-  <si>
-    <t>LP-045130</t>
-  </si>
-  <si>
-    <t>LP-045327</t>
-  </si>
-  <si>
-    <t>LP-045819</t>
-  </si>
-  <si>
-    <t>LP-045827</t>
-  </si>
-  <si>
-    <t>LP-045828</t>
-  </si>
-  <si>
-    <t>LP-046341</t>
-  </si>
-  <si>
-    <t>LP-047096</t>
-  </si>
-  <si>
-    <t>LP-047102</t>
-  </si>
-  <si>
-    <t>LP-047106</t>
-  </si>
-  <si>
-    <t>LP-047176</t>
-  </si>
-  <si>
-    <t>LP-047331</t>
-  </si>
-  <si>
-    <t>LP-047338</t>
-  </si>
-  <si>
-    <t>LP-047451</t>
-  </si>
-  <si>
-    <t>LP-047457</t>
-  </si>
-  <si>
-    <t>LP-047488</t>
-  </si>
-  <si>
-    <t>LP-047492</t>
-  </si>
-  <si>
-    <t>LP-047501</t>
-  </si>
-  <si>
-    <t>LP-047504</t>
-  </si>
-  <si>
-    <t>LP-047520</t>
-  </si>
-  <si>
-    <t>LP-047787</t>
-  </si>
-  <si>
-    <t>LP-047865</t>
-  </si>
-  <si>
-    <t>LP-047871</t>
-  </si>
-  <si>
-    <t>LP-047886</t>
-  </si>
-  <si>
-    <t>LP-047890</t>
-  </si>
-  <si>
-    <t>LP-048703</t>
-  </si>
-  <si>
-    <t>LP-048838</t>
-  </si>
-  <si>
-    <t>LP-046173</t>
-  </si>
-  <si>
-    <t>LP-047826</t>
-  </si>
-  <si>
-    <t>LP-043868</t>
-  </si>
-  <si>
-    <t>LP-046067</t>
-  </si>
-  <si>
-    <t>LP-046169</t>
-  </si>
-  <si>
-    <t>LP-046176</t>
-  </si>
-  <si>
-    <t>LP-046184</t>
-  </si>
-  <si>
-    <t>LP-046662</t>
-  </si>
-  <si>
-    <t>LP-047171</t>
-  </si>
-  <si>
-    <t>LP-047490</t>
-  </si>
-  <si>
-    <t>LP-047507</t>
-  </si>
-  <si>
-    <t>LP-047528</t>
-  </si>
-  <si>
-    <t>LP-045883</t>
+    <t>LP-047523</t>
+  </si>
+  <si>
+    <t>LP-047882</t>
+  </si>
+  <si>
+    <t>LP-045513</t>
+  </si>
+  <si>
+    <t>LP-049196</t>
+  </si>
+  <si>
+    <t>LP-048160</t>
   </si>
 </sst>
 </file>
@@ -511,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,12 +422,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,192 +437,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66533772-FFAE-4CDB-ABD8-41AD6EE3B26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9C886-E8FB-47CA-BC97-CC31158F198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>LP</t>
   </si>
@@ -28,19 +28,157 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-047523</t>
-  </si>
-  <si>
-    <t>LP-047882</t>
-  </si>
-  <si>
-    <t>LP-045513</t>
-  </si>
-  <si>
-    <t>LP-049196</t>
-  </si>
-  <si>
-    <t>LP-048160</t>
+    <t>LP-045293</t>
+  </si>
+  <si>
+    <t>LP-045321</t>
+  </si>
+  <si>
+    <t>LP-045512</t>
+  </si>
+  <si>
+    <t>LP-045682</t>
+  </si>
+  <si>
+    <t>LP-045825</t>
+  </si>
+  <si>
+    <t>LP-046160</t>
+  </si>
+  <si>
+    <t>LP-046182</t>
+  </si>
+  <si>
+    <t>LP-046995</t>
+  </si>
+  <si>
+    <t>LP-047091</t>
+  </si>
+  <si>
+    <t>LP-047093</t>
+  </si>
+  <si>
+    <t>LP-047094</t>
+  </si>
+  <si>
+    <t>LP-047112</t>
+  </si>
+  <si>
+    <t>LP-047246</t>
+  </si>
+  <si>
+    <t>LP-047330</t>
+  </si>
+  <si>
+    <t>LP-047339</t>
+  </si>
+  <si>
+    <t>LP-047478</t>
+  </si>
+  <si>
+    <t>LP-047480</t>
+  </si>
+  <si>
+    <t>LP-047481</t>
+  </si>
+  <si>
+    <t>LP-047482</t>
+  </si>
+  <si>
+    <t>LP-047483</t>
+  </si>
+  <si>
+    <t>LP-047484</t>
+  </si>
+  <si>
+    <t>LP-047485</t>
+  </si>
+  <si>
+    <t>LP-047486</t>
+  </si>
+  <si>
+    <t>LP-047487</t>
+  </si>
+  <si>
+    <t>LP-047503</t>
+  </si>
+  <si>
+    <t>LP-047521</t>
+  </si>
+  <si>
+    <t>LP-047505</t>
+  </si>
+  <si>
+    <t>LP-047564</t>
+  </si>
+  <si>
+    <t>LP-047770</t>
+  </si>
+  <si>
+    <t>LP-047774</t>
+  </si>
+  <si>
+    <t>LP-047833</t>
+  </si>
+  <si>
+    <t>LP-047874</t>
+  </si>
+  <si>
+    <t>LP-047877</t>
+  </si>
+  <si>
+    <t>LP-047891</t>
+  </si>
+  <si>
+    <t>LP-047892</t>
+  </si>
+  <si>
+    <t>LP-048271</t>
+  </si>
+  <si>
+    <t>LP-048275</t>
+  </si>
+  <si>
+    <t>LP-048276</t>
+  </si>
+  <si>
+    <t>LP-048292</t>
+  </si>
+  <si>
+    <t>LP-048368</t>
+  </si>
+  <si>
+    <t>LP-048382</t>
+  </si>
+  <si>
+    <t>LP-048589</t>
+  </si>
+  <si>
+    <t>LP-048597</t>
+  </si>
+  <si>
+    <t>LP-048653</t>
+  </si>
+  <si>
+    <t>LP-048654</t>
+  </si>
+  <si>
+    <t>LP-048704</t>
+  </si>
+  <si>
+    <t>LP-043273</t>
+  </si>
+  <si>
+    <t>LP-047250</t>
+  </si>
+  <si>
+    <t>LP-047876</t>
+  </si>
+  <si>
+    <t>LP-048036</t>
+  </si>
+  <si>
+    <t>LP-048151</t>
   </si>
 </sst>
 </file>
@@ -403,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +560,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,12 +575,242 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9C886-E8FB-47CA-BC97-CC31158F198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A250EBC-F31C-451A-A051-E8A693B383F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>LP</t>
   </si>
@@ -28,157 +28,121 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-045293</t>
-  </si>
-  <si>
-    <t>LP-045321</t>
-  </si>
-  <si>
-    <t>LP-045512</t>
-  </si>
-  <si>
-    <t>LP-045682</t>
-  </si>
-  <si>
-    <t>LP-045825</t>
-  </si>
-  <si>
-    <t>LP-046160</t>
-  </si>
-  <si>
-    <t>LP-046182</t>
-  </si>
-  <si>
-    <t>LP-046995</t>
-  </si>
-  <si>
-    <t>LP-047091</t>
-  </si>
-  <si>
-    <t>LP-047093</t>
-  </si>
-  <si>
-    <t>LP-047094</t>
-  </si>
-  <si>
-    <t>LP-047112</t>
-  </si>
-  <si>
-    <t>LP-047246</t>
-  </si>
-  <si>
-    <t>LP-047330</t>
-  </si>
-  <si>
-    <t>LP-047339</t>
-  </si>
-  <si>
-    <t>LP-047478</t>
-  </si>
-  <si>
-    <t>LP-047480</t>
-  </si>
-  <si>
-    <t>LP-047481</t>
-  </si>
-  <si>
-    <t>LP-047482</t>
-  </si>
-  <si>
-    <t>LP-047483</t>
-  </si>
-  <si>
-    <t>LP-047484</t>
-  </si>
-  <si>
-    <t>LP-047485</t>
-  </si>
-  <si>
-    <t>LP-047486</t>
-  </si>
-  <si>
-    <t>LP-047487</t>
-  </si>
-  <si>
-    <t>LP-047503</t>
-  </si>
-  <si>
-    <t>LP-047521</t>
-  </si>
-  <si>
-    <t>LP-047505</t>
-  </si>
-  <si>
-    <t>LP-047564</t>
-  </si>
-  <si>
-    <t>LP-047770</t>
-  </si>
-  <si>
-    <t>LP-047774</t>
-  </si>
-  <si>
-    <t>LP-047833</t>
-  </si>
-  <si>
-    <t>LP-047874</t>
-  </si>
-  <si>
-    <t>LP-047877</t>
-  </si>
-  <si>
-    <t>LP-047891</t>
-  </si>
-  <si>
-    <t>LP-047892</t>
-  </si>
-  <si>
-    <t>LP-048271</t>
-  </si>
-  <si>
-    <t>LP-048275</t>
-  </si>
-  <si>
-    <t>LP-048276</t>
-  </si>
-  <si>
-    <t>LP-048292</t>
-  </si>
-  <si>
-    <t>LP-048368</t>
-  </si>
-  <si>
-    <t>LP-048382</t>
-  </si>
-  <si>
-    <t>LP-048589</t>
-  </si>
-  <si>
-    <t>LP-048597</t>
-  </si>
-  <si>
-    <t>LP-048653</t>
-  </si>
-  <si>
-    <t>LP-048654</t>
-  </si>
-  <si>
-    <t>LP-048704</t>
-  </si>
-  <si>
-    <t>LP-043273</t>
-  </si>
-  <si>
-    <t>LP-047250</t>
-  </si>
-  <si>
-    <t>LP-047876</t>
-  </si>
-  <si>
-    <t>LP-048036</t>
-  </si>
-  <si>
-    <t>LP-048151</t>
+    <t>LP-049467</t>
+  </si>
+  <si>
+    <t>LP-049213</t>
+  </si>
+  <si>
+    <t>LP-049212</t>
+  </si>
+  <si>
+    <t>LP-049098</t>
+  </si>
+  <si>
+    <t>LP-049032</t>
+  </si>
+  <si>
+    <t>LP-048745</t>
+  </si>
+  <si>
+    <t>LP-048711</t>
+  </si>
+  <si>
+    <t>LP-048710</t>
+  </si>
+  <si>
+    <t>LP-048708</t>
+  </si>
+  <si>
+    <t>LP-048707</t>
+  </si>
+  <si>
+    <t>LP-048377</t>
+  </si>
+  <si>
+    <t>LP-048376</t>
+  </si>
+  <si>
+    <t>LP-048375</t>
+  </si>
+  <si>
+    <t>LP-048374</t>
+  </si>
+  <si>
+    <t>LP-048293</t>
+  </si>
+  <si>
+    <t>LP-048278</t>
+  </si>
+  <si>
+    <t>LP-048164</t>
+  </si>
+  <si>
+    <t>LP-048179</t>
+  </si>
+  <si>
+    <t>LP-048157</t>
+  </si>
+  <si>
+    <t>LP-048154</t>
+  </si>
+  <si>
+    <t>LP-048153</t>
+  </si>
+  <si>
+    <t>LP-048146</t>
+  </si>
+  <si>
+    <t>LP-048145</t>
+  </si>
+  <si>
+    <t>LP-048014</t>
+  </si>
+  <si>
+    <t>LP-047873</t>
+  </si>
+  <si>
+    <t>LP-047834</t>
+  </si>
+  <si>
+    <t>LP-047781</t>
+  </si>
+  <si>
+    <t>LP-047517</t>
+  </si>
+  <si>
+    <t>LP-047511</t>
+  </si>
+  <si>
+    <t>LP-047502</t>
+  </si>
+  <si>
+    <t>LP-047207</t>
+  </si>
+  <si>
+    <t>LP-046994</t>
+  </si>
+  <si>
+    <t>LP-046631</t>
+  </si>
+  <si>
+    <t>LP-046185</t>
+  </si>
+  <si>
+    <t>LP-046175</t>
+  </si>
+  <si>
+    <t>LP-045680</t>
+  </si>
+  <si>
+    <t>LP-045549</t>
+  </si>
+  <si>
+    <t>LP-044738</t>
+  </si>
+  <si>
+    <t>LP-045665</t>
   </si>
 </sst>
 </file>
@@ -541,14 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -560,257 +523,197 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A250EBC-F31C-451A-A051-E8A693B383F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515B31B-7A9D-4F50-8D83-867222865082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>LP</t>
   </si>
@@ -28,121 +28,91 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-049467</t>
-  </si>
-  <si>
-    <t>LP-049213</t>
-  </si>
-  <si>
-    <t>LP-049212</t>
-  </si>
-  <si>
-    <t>LP-049098</t>
-  </si>
-  <si>
-    <t>LP-049032</t>
-  </si>
-  <si>
-    <t>LP-048745</t>
-  </si>
-  <si>
-    <t>LP-048711</t>
-  </si>
-  <si>
-    <t>LP-048710</t>
-  </si>
-  <si>
-    <t>LP-048708</t>
-  </si>
-  <si>
-    <t>LP-048707</t>
-  </si>
-  <si>
-    <t>LP-048377</t>
-  </si>
-  <si>
-    <t>LP-048376</t>
-  </si>
-  <si>
-    <t>LP-048375</t>
-  </si>
-  <si>
-    <t>LP-048374</t>
-  </si>
-  <si>
-    <t>LP-048293</t>
-  </si>
-  <si>
-    <t>LP-048278</t>
-  </si>
-  <si>
-    <t>LP-048164</t>
-  </si>
-  <si>
-    <t>LP-048179</t>
-  </si>
-  <si>
-    <t>LP-048157</t>
-  </si>
-  <si>
-    <t>LP-048154</t>
-  </si>
-  <si>
-    <t>LP-048153</t>
-  </si>
-  <si>
-    <t>LP-048146</t>
-  </si>
-  <si>
-    <t>LP-048145</t>
-  </si>
-  <si>
-    <t>LP-048014</t>
-  </si>
-  <si>
-    <t>LP-047873</t>
-  </si>
-  <si>
-    <t>LP-047834</t>
-  </si>
-  <si>
-    <t>LP-047781</t>
-  </si>
-  <si>
-    <t>LP-047517</t>
-  </si>
-  <si>
-    <t>LP-047511</t>
-  </si>
-  <si>
-    <t>LP-047502</t>
-  </si>
-  <si>
-    <t>LP-047207</t>
-  </si>
-  <si>
-    <t>LP-046994</t>
-  </si>
-  <si>
-    <t>LP-046631</t>
-  </si>
-  <si>
-    <t>LP-046185</t>
-  </si>
-  <si>
-    <t>LP-046175</t>
-  </si>
-  <si>
-    <t>LP-045680</t>
-  </si>
-  <si>
-    <t>LP-045549</t>
-  </si>
-  <si>
-    <t>LP-044738</t>
-  </si>
-  <si>
-    <t>LP-045665</t>
+    <t>LP-033830</t>
+  </si>
+  <si>
+    <t>LP-046084</t>
+  </si>
+  <si>
+    <t>LP-046162</t>
+  </si>
+  <si>
+    <t>LP-046172</t>
+  </si>
+  <si>
+    <t>LP-046232</t>
+  </si>
+  <si>
+    <t>LP-046339</t>
+  </si>
+  <si>
+    <t>LP-046350</t>
+  </si>
+  <si>
+    <t>LP-047095</t>
+  </si>
+  <si>
+    <t>LP-047259</t>
+  </si>
+  <si>
+    <t>LP-047336</t>
+  </si>
+  <si>
+    <t>LP-048140</t>
+  </si>
+  <si>
+    <t>LP-048155</t>
+  </si>
+  <si>
+    <t>LP-048158</t>
+  </si>
+  <si>
+    <t>LP-048261</t>
+  </si>
+  <si>
+    <t>LP-048264</t>
+  </si>
+  <si>
+    <t>LP-048267</t>
+  </si>
+  <si>
+    <t>LP-048268</t>
+  </si>
+  <si>
+    <t>LP-048270</t>
+  </si>
+  <si>
+    <t>LP-048366</t>
+  </si>
+  <si>
+    <t>LP-048369</t>
+  </si>
+  <si>
+    <t>LP-048709</t>
+  </si>
+  <si>
+    <t>LP-048715</t>
+  </si>
+  <si>
+    <t>LP-049029</t>
+  </si>
+  <si>
+    <t>LP-049031</t>
+  </si>
+  <si>
+    <t>LP-049097</t>
+  </si>
+  <si>
+    <t>LP-049218</t>
+  </si>
+  <si>
+    <t>LP-049298</t>
+  </si>
+  <si>
+    <t>LP-049624</t>
+  </si>
+  <si>
+    <t>LP-049030</t>
   </si>
 </sst>
 </file>
@@ -505,13 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -638,82 +610,32 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515B31B-7A9D-4F50-8D83-867222865082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C32EA16-CF97-42A5-9CB7-188BBDDEB492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>LP</t>
   </si>
@@ -28,91 +28,298 @@
     <t>Status</t>
   </si>
   <si>
-    <t>LP-033830</t>
-  </si>
-  <si>
-    <t>LP-046084</t>
-  </si>
-  <si>
-    <t>LP-046162</t>
-  </si>
-  <si>
-    <t>LP-046172</t>
-  </si>
-  <si>
-    <t>LP-046232</t>
-  </si>
-  <si>
-    <t>LP-046339</t>
-  </si>
-  <si>
-    <t>LP-046350</t>
-  </si>
-  <si>
-    <t>LP-047095</t>
-  </si>
-  <si>
-    <t>LP-047259</t>
-  </si>
-  <si>
-    <t>LP-047336</t>
-  </si>
-  <si>
-    <t>LP-048140</t>
-  </si>
-  <si>
-    <t>LP-048155</t>
-  </si>
-  <si>
-    <t>LP-048158</t>
-  </si>
-  <si>
-    <t>LP-048261</t>
-  </si>
-  <si>
-    <t>LP-048264</t>
-  </si>
-  <si>
-    <t>LP-048267</t>
-  </si>
-  <si>
-    <t>LP-048268</t>
-  </si>
-  <si>
-    <t>LP-048270</t>
-  </si>
-  <si>
-    <t>LP-048366</t>
-  </si>
-  <si>
-    <t>LP-048369</t>
-  </si>
-  <si>
-    <t>LP-048709</t>
-  </si>
-  <si>
-    <t>LP-048715</t>
-  </si>
-  <si>
-    <t>LP-049029</t>
-  </si>
-  <si>
-    <t>LP-049031</t>
-  </si>
-  <si>
-    <t>LP-049097</t>
-  </si>
-  <si>
-    <t>LP-049218</t>
-  </si>
-  <si>
-    <t>LP-049298</t>
-  </si>
-  <si>
-    <t>LP-049624</t>
-  </si>
-  <si>
-    <t>LP-049030</t>
+    <t>LP-044776</t>
+  </si>
+  <si>
+    <t>LP-044779</t>
+  </si>
+  <si>
+    <t>LP-045561</t>
+  </si>
+  <si>
+    <t>LP-046107</t>
+  </si>
+  <si>
+    <t>LP-046120</t>
+  </si>
+  <si>
+    <t>LP-046962</t>
+  </si>
+  <si>
+    <t>LP-047474</t>
+  </si>
+  <si>
+    <t>LP-047493</t>
+  </si>
+  <si>
+    <t>LP-047771</t>
+  </si>
+  <si>
+    <t>LP-047829</t>
+  </si>
+  <si>
+    <t>LP-047845</t>
+  </si>
+  <si>
+    <t>LP-047875</t>
+  </si>
+  <si>
+    <t>LP-048037</t>
+  </si>
+  <si>
+    <t>LP-048135</t>
+  </si>
+  <si>
+    <t>LP-048136</t>
+  </si>
+  <si>
+    <t>LP-048141</t>
+  </si>
+  <si>
+    <t>LP-048142</t>
+  </si>
+  <si>
+    <t>LP-048147</t>
+  </si>
+  <si>
+    <t>LP-048380</t>
+  </si>
+  <si>
+    <t>LP-048381</t>
+  </si>
+  <si>
+    <t>LP-048422</t>
+  </si>
+  <si>
+    <t>LP-048650</t>
+  </si>
+  <si>
+    <t>LP-048716</t>
+  </si>
+  <si>
+    <t>LP-049091</t>
+  </si>
+  <si>
+    <t>LP-049093</t>
+  </si>
+  <si>
+    <t>LP-049269</t>
+  </si>
+  <si>
+    <t>LP-049293</t>
+  </si>
+  <si>
+    <t>LP-049297</t>
+  </si>
+  <si>
+    <t>LP-049300</t>
+  </si>
+  <si>
+    <t>LP-049456</t>
+  </si>
+  <si>
+    <t>LP-039657</t>
+  </si>
+  <si>
+    <t>LP-045254</t>
+  </si>
+  <si>
+    <t>LP-046239</t>
+  </si>
+  <si>
+    <t>LP-047830</t>
+  </si>
+  <si>
+    <t>LP-046106</t>
+  </si>
+  <si>
+    <t>LP-046491</t>
+  </si>
+  <si>
+    <t>LP-046503</t>
+  </si>
+  <si>
+    <t>LP-046530</t>
+  </si>
+  <si>
+    <t>LP-046841</t>
+  </si>
+  <si>
+    <t>LP-047126</t>
+  </si>
+  <si>
+    <t>LP-047162</t>
+  </si>
+  <si>
+    <t>LP-047230</t>
+  </si>
+  <si>
+    <t>LP-047254</t>
+  </si>
+  <si>
+    <t>LP-047323</t>
+  </si>
+  <si>
+    <t>LP-047363</t>
+  </si>
+  <si>
+    <t>LP-047663</t>
+  </si>
+  <si>
+    <t>LP-047671</t>
+  </si>
+  <si>
+    <t>LP-047925</t>
+  </si>
+  <si>
+    <t>LP-048000</t>
+  </si>
+  <si>
+    <t>LP-048053</t>
+  </si>
+  <si>
+    <t>LP-048317</t>
+  </si>
+  <si>
+    <t>LP-048329</t>
+  </si>
+  <si>
+    <t>LP-048544</t>
+  </si>
+  <si>
+    <t>LP-048675</t>
+  </si>
+  <si>
+    <t>LP-048677</t>
+  </si>
+  <si>
+    <t>LP-048679</t>
+  </si>
+  <si>
+    <t>LP-048681</t>
+  </si>
+  <si>
+    <t>LP-048683</t>
+  </si>
+  <si>
+    <t>LP-048685</t>
+  </si>
+  <si>
+    <t>LP-048812</t>
+  </si>
+  <si>
+    <t>LP-048829</t>
+  </si>
+  <si>
+    <t>LP-048834</t>
+  </si>
+  <si>
+    <t>LP-048836</t>
+  </si>
+  <si>
+    <t>LP-048870</t>
+  </si>
+  <si>
+    <t>LP-048880</t>
+  </si>
+  <si>
+    <t>LP-048881</t>
+  </si>
+  <si>
+    <t>LP-048890</t>
+  </si>
+  <si>
+    <t>LP-048891</t>
+  </si>
+  <si>
+    <t>LP-048915</t>
+  </si>
+  <si>
+    <t>LP-048924</t>
+  </si>
+  <si>
+    <t>LP-048933</t>
+  </si>
+  <si>
+    <t>LP-048934</t>
+  </si>
+  <si>
+    <t>LP-048935</t>
+  </si>
+  <si>
+    <t>LP-048938</t>
+  </si>
+  <si>
+    <t>LP-049025</t>
+  </si>
+  <si>
+    <t>LP-049127</t>
+  </si>
+  <si>
+    <t>LP-049181</t>
+  </si>
+  <si>
+    <t>LP-049182</t>
+  </si>
+  <si>
+    <t>LP-049183</t>
+  </si>
+  <si>
+    <t>LP-049184</t>
+  </si>
+  <si>
+    <t>LP-049219</t>
+  </si>
+  <si>
+    <t>LP-049237</t>
+  </si>
+  <si>
+    <t>LP-049238</t>
+  </si>
+  <si>
+    <t>LP-049282</t>
+  </si>
+  <si>
+    <t>LP-049419</t>
+  </si>
+  <si>
+    <t>LP-049420</t>
+  </si>
+  <si>
+    <t>LP-049422</t>
+  </si>
+  <si>
+    <t>LP-049424</t>
+  </si>
+  <si>
+    <t>LP-049426</t>
+  </si>
+  <si>
+    <t>LP-049440</t>
+  </si>
+  <si>
+    <t>LP-049471</t>
+  </si>
+  <si>
+    <t>LP-049546</t>
+  </si>
+  <si>
+    <t>LP-049634</t>
+  </si>
+  <si>
+    <t>LP-049635</t>
+  </si>
+  <si>
+    <t>LP-049795</t>
+  </si>
+  <si>
+    <t>LP-049796</t>
+  </si>
+  <si>
+    <t>LP-049991</t>
+  </si>
+  <si>
+    <t>LP-050021</t>
   </si>
 </sst>
 </file>
@@ -475,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,147 +702,492 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F79E12A-AE75-43A8-9DBD-F0ACD32BFEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D188510C-AB41-4180-AF8E-D6853F74783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,117 +20,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>LP</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>LP-045068</t>
-  </si>
-  <si>
-    <t>LP-045256</t>
-  </si>
-  <si>
-    <t>LP-046955</t>
-  </si>
-  <si>
-    <t>LP-047335</t>
-  </si>
-  <si>
-    <t>LP-047467</t>
-  </si>
-  <si>
-    <t>LP-047773</t>
-  </si>
-  <si>
-    <t>LP-047836</t>
-  </si>
-  <si>
-    <t>LP-047837</t>
-  </si>
-  <si>
-    <t>LP-047843</t>
-  </si>
-  <si>
-    <t>LP-047889</t>
-  </si>
-  <si>
-    <t>LP-048138</t>
-  </si>
-  <si>
-    <t>LP-048139</t>
-  </si>
-  <si>
-    <t>LP-048156</t>
-  </si>
-  <si>
-    <t>LP-048187</t>
-  </si>
-  <si>
-    <t>LP-048188</t>
-  </si>
-  <si>
-    <t>LP-048221</t>
-  </si>
-  <si>
-    <t>LP-048279</t>
-  </si>
-  <si>
-    <t>LP-048379</t>
-  </si>
-  <si>
-    <t>LP-048390</t>
-  </si>
-  <si>
-    <t>LP-048643</t>
-  </si>
-  <si>
-    <t>LP-048732</t>
-  </si>
-  <si>
-    <t>LP-048733</t>
-  </si>
-  <si>
-    <t>LP-048999</t>
-  </si>
-  <si>
-    <t>LP-049034</t>
-  </si>
-  <si>
-    <t>LP-049039</t>
-  </si>
-  <si>
-    <t>LP-049120</t>
-  </si>
-  <si>
-    <t>LP-049141</t>
-  </si>
-  <si>
-    <t>LP-049216</t>
-  </si>
-  <si>
-    <t>LP-049627</t>
-  </si>
-  <si>
-    <t>LP-049650</t>
-  </si>
-  <si>
-    <t>LP-049673</t>
-  </si>
-  <si>
-    <t>LP-049801</t>
-  </si>
-  <si>
-    <t>LP-049831</t>
-  </si>
-  <si>
-    <t>LP-048644</t>
-  </si>
-  <si>
-    <t>LP-049326</t>
+    <t>LP-042432</t>
+  </si>
+  <si>
+    <t>LP-043478</t>
+  </si>
+  <si>
+    <t>LP-045475</t>
+  </si>
+  <si>
+    <t>LP-046179</t>
+  </si>
+  <si>
+    <t>LP-046670</t>
+  </si>
+  <si>
+    <t>LP-047185</t>
+  </si>
+  <si>
+    <t>LP-047204</t>
+  </si>
+  <si>
+    <t>LP-047489</t>
+  </si>
+  <si>
+    <t>LP-047515</t>
+  </si>
+  <si>
+    <t>LP-047522</t>
+  </si>
+  <si>
+    <t>LP-048148</t>
+  </si>
+  <si>
+    <t>LP-048174</t>
+  </si>
+  <si>
+    <t>LP-048190</t>
+  </si>
+  <si>
+    <t>LP-048192</t>
+  </si>
+  <si>
+    <t>LP-048349</t>
+  </si>
+  <si>
+    <t>LP-048365</t>
+  </si>
+  <si>
+    <t>LP-048371</t>
+  </si>
+  <si>
+    <t>LP-048387</t>
+  </si>
+  <si>
+    <t>LP-048391</t>
+  </si>
+  <si>
+    <t>LP-048424</t>
+  </si>
+  <si>
+    <t>LP-048425</t>
+  </si>
+  <si>
+    <t>LP-048651</t>
+  </si>
+  <si>
+    <t>LP-048652</t>
+  </si>
+  <si>
+    <t>LP-048972</t>
+  </si>
+  <si>
+    <t>LP-048980</t>
+  </si>
+  <si>
+    <t>LP-048994</t>
+  </si>
+  <si>
+    <t>LP-049037</t>
+  </si>
+  <si>
+    <t>LP-049043</t>
+  </si>
+  <si>
+    <t>LP-049342</t>
+  </si>
+  <si>
+    <t>LP-049362</t>
+  </si>
+  <si>
+    <t>LP-049377</t>
+  </si>
+  <si>
+    <t>LP-049386</t>
+  </si>
+  <si>
+    <t>LP-049388</t>
+  </si>
+  <si>
+    <t>LP-049389</t>
+  </si>
+  <si>
+    <t>LP-049442</t>
+  </si>
+  <si>
+    <t>LP-049463</t>
+  </si>
+  <si>
+    <t>LP-049510</t>
+  </si>
+  <si>
+    <t>LP-049511</t>
+  </si>
+  <si>
+    <t>LP-049512</t>
+  </si>
+  <si>
+    <t>LP-049620</t>
+  </si>
+  <si>
+    <t>LP-049659</t>
+  </si>
+  <si>
+    <t>LP-049668</t>
+  </si>
+  <si>
+    <t>LP-049671</t>
+  </si>
+  <si>
+    <t>LP-049676</t>
+  </si>
+  <si>
+    <t>LP-049677</t>
+  </si>
+  <si>
+    <t>LP-049684</t>
+  </si>
+  <si>
+    <t>LP-049763</t>
+  </si>
+  <si>
+    <t>LP-049829</t>
+  </si>
+  <si>
+    <t>LP-049833</t>
+  </si>
+  <si>
+    <t>LP-049834</t>
+  </si>
+  <si>
+    <t>LP-049860</t>
+  </si>
+  <si>
+    <t>LP-050087</t>
+  </si>
+  <si>
+    <t>LP-048191</t>
+  </si>
+  <si>
+    <t>LP-048274</t>
+  </si>
+  <si>
+    <t>LP-048803</t>
+  </si>
+  <si>
+    <t>LP-049214</t>
+  </si>
+  <si>
+    <t>LP-049499</t>
   </si>
 </sst>
 </file>
@@ -493,197 +556,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Open-LPs - pé.xlsx
+++ b/Open-LPs - pé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D188510C-AB41-4180-AF8E-D6853F74783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22938A-C197-47D5-9309-A3DE2C60AC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,180 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>LP</t>
   </si>
   <si>
-    <t>LP-042432</t>
-  </si>
-  <si>
-    <t>LP-043478</t>
-  </si>
-  <si>
-    <t>LP-045475</t>
-  </si>
-  <si>
-    <t>LP-046179</t>
-  </si>
-  <si>
-    <t>LP-046670</t>
-  </si>
-  <si>
-    <t>LP-047185</t>
-  </si>
-  <si>
-    <t>LP-047204</t>
-  </si>
-  <si>
-    <t>LP-047489</t>
-  </si>
-  <si>
-    <t>LP-047515</t>
-  </si>
-  <si>
-    <t>LP-047522</t>
-  </si>
-  <si>
-    <t>LP-048148</t>
-  </si>
-  <si>
-    <t>LP-048174</t>
-  </si>
-  <si>
-    <t>LP-048190</t>
-  </si>
-  <si>
-    <t>LP-048192</t>
-  </si>
-  <si>
-    <t>LP-048349</t>
-  </si>
-  <si>
-    <t>LP-048365</t>
-  </si>
-  <si>
-    <t>LP-048371</t>
-  </si>
-  <si>
-    <t>LP-048387</t>
-  </si>
-  <si>
-    <t>LP-048391</t>
-  </si>
-  <si>
-    <t>LP-048424</t>
-  </si>
-  <si>
-    <t>LP-048425</t>
-  </si>
-  <si>
-    <t>LP-048651</t>
-  </si>
-  <si>
-    <t>LP-048652</t>
-  </si>
-  <si>
-    <t>LP-048972</t>
-  </si>
-  <si>
-    <t>LP-048980</t>
-  </si>
-  <si>
-    <t>LP-048994</t>
-  </si>
-  <si>
-    <t>LP-049037</t>
-  </si>
-  <si>
-    <t>LP-049043</t>
-  </si>
-  <si>
-    <t>LP-049342</t>
-  </si>
-  <si>
-    <t>LP-049362</t>
-  </si>
-  <si>
-    <t>LP-049377</t>
-  </si>
-  <si>
-    <t>LP-049386</t>
-  </si>
-  <si>
-    <t>LP-049388</t>
-  </si>
-  <si>
-    <t>LP-049389</t>
-  </si>
-  <si>
-    <t>LP-049442</t>
-  </si>
-  <si>
-    <t>LP-049463</t>
-  </si>
-  <si>
-    <t>LP-049510</t>
-  </si>
-  <si>
-    <t>LP-049511</t>
-  </si>
-  <si>
-    <t>LP-049512</t>
-  </si>
-  <si>
-    <t>LP-049620</t>
-  </si>
-  <si>
-    <t>LP-049659</t>
-  </si>
-  <si>
-    <t>LP-049668</t>
-  </si>
-  <si>
-    <t>LP-049671</t>
-  </si>
-  <si>
-    <t>LP-049676</t>
-  </si>
-  <si>
-    <t>LP-049677</t>
-  </si>
-  <si>
-    <t>LP-049684</t>
-  </si>
-  <si>
-    <t>LP-049763</t>
-  </si>
-  <si>
-    <t>LP-049829</t>
-  </si>
-  <si>
-    <t>LP-049833</t>
-  </si>
-  <si>
-    <t>LP-049834</t>
-  </si>
-  <si>
-    <t>LP-049860</t>
-  </si>
-  <si>
-    <t>LP-050087</t>
-  </si>
-  <si>
-    <t>LP-048191</t>
-  </si>
-  <si>
-    <t>LP-048274</t>
-  </si>
-  <si>
-    <t>LP-048803</t>
-  </si>
-  <si>
-    <t>LP-049214</t>
-  </si>
-  <si>
-    <t>LP-049499</t>
+    <t>LP-041971</t>
+  </si>
+  <si>
+    <t>LP-044482</t>
+  </si>
+  <si>
+    <t>LP-045310</t>
+  </si>
+  <si>
+    <t>LP-046159</t>
+  </si>
+  <si>
+    <t>LP-046178</t>
+  </si>
+  <si>
+    <t>LP-046930</t>
+  </si>
+  <si>
+    <t>LP-047775</t>
+  </si>
+  <si>
+    <t>LP-047838</t>
+  </si>
+  <si>
+    <t>LP-048152</t>
+  </si>
+  <si>
+    <t>LP-048175</t>
+  </si>
+  <si>
+    <t>LP-048262</t>
+  </si>
+  <si>
+    <t>LP-048973</t>
+  </si>
+  <si>
+    <t>LP-048974</t>
+  </si>
+  <si>
+    <t>LP-048987</t>
+  </si>
+  <si>
+    <t>LP-048998</t>
+  </si>
+  <si>
+    <t>LP-049168</t>
+  </si>
+  <si>
+    <t>LP-049179</t>
+  </si>
+  <si>
+    <t>LP-049312</t>
+  </si>
+  <si>
+    <t>LP-049457</t>
+  </si>
+  <si>
+    <t>LP-049473</t>
+  </si>
+  <si>
+    <t>LP-049658</t>
+  </si>
+  <si>
+    <t>LP-049757</t>
+  </si>
+  <si>
+    <t>LP-049769</t>
+  </si>
+  <si>
+    <t>LP-049861</t>
+  </si>
+  <si>
+    <t>LP-049942</t>
+  </si>
+  <si>
+    <t>LP-049501</t>
+  </si>
+  <si>
+    <t>LP-049332</t>
+  </si>
+  <si>
+    <t>LP-049003</t>
+  </si>
+  <si>
+    <t>LP-047248</t>
   </si>
 </sst>
 </file>
@@ -556,11 +472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -604,42 +518,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -649,12 +563,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -674,187 +588,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
